--- a/student_app/server/users.xlsx
+++ b/student_app/server/users.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -413,20 +413,21 @@
         <v>password</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="6">
+      <c r="A6" t="str">
         <v>yair</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B6" t="str">
         <v>yairda2@gmail.com</v>
       </c>
-      <c r="C2" t="str">
-        <v>$2b$10$7xOzsvi74Sgh4EmLzilkEur5mEHNx5a7cz77kjlf1Mtna701juq8C</v>
+      <c r="C6" t="str">
+        <v>$2b$10$1BYkG8nP51XxP09tJ98vGeyyl86ksMfA3K0UsPWed3v3.zV/xT4Nu</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>